--- a/Client/Excel/MapItem.xlsx
+++ b/Client/Excel/MapItem.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22950" windowHeight="9930"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22950" windowHeight="9930"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>id</t>
   </si>
@@ -64,6 +64,10 @@
   </si>
   <si>
     <t>code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>domino</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -76,7 +80,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="\Ve\c\t\o\r\3"/>
+    <numFmt numFmtId="176" formatCode="\Ve\c\t\o\r\3"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -119,7 +123,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -400,7 +404,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -450,7 +454,7 @@
         <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>10</v>

--- a/Client/Excel/MapItem.xlsx
+++ b/Client/Excel/MapItem.xlsx
@@ -404,7 +404,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -463,7 +463,7 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="H2">
         <v>0.05</v>
@@ -489,7 +489,7 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="H3">
         <v>0.05</v>

--- a/Client/Excel/MapItem.xlsx
+++ b/Client/Excel/MapItem.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t>id</t>
   </si>
@@ -72,6 +72,10 @@
   </si>
   <si>
     <t>domino</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>physics</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -401,10 +405,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -417,7 +421,7 @@
     <col min="8" max="8" width="11.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -442,8 +446,11 @@
       <c r="H1" t="s">
         <v>5</v>
       </c>
+      <c r="I1" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -468,8 +475,11 @@
       <c r="H2">
         <v>0.05</v>
       </c>
+      <c r="I2" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -493,6 +503,9 @@
       </c>
       <c r="H3">
         <v>0.05</v>
+      </c>
+      <c r="I3" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Client/Excel/MapItem.xlsx
+++ b/Client/Excel/MapItem.xlsx
@@ -55,14 +55,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0.3,1.5,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.3,2,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>code</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -76,6 +68,14 @@
   </si>
   <si>
     <t>physics</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,2,1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -408,7 +408,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -432,7 +432,7 @@
         <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -447,7 +447,7 @@
         <v>5</v>
       </c>
       <c r="I1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -461,10 +461,10 @@
         <v>9</v>
       </c>
       <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -476,7 +476,7 @@
         <v>0.05</v>
       </c>
       <c r="I2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -490,10 +490,10 @@
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -505,7 +505,7 @@
         <v>0.05</v>
       </c>
       <c r="I3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
